--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1450474.747799528</v>
+        <v>-1428399.043486546</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10559750.62811913</v>
+        <v>10588026.30651838</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>279.5101090294842</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>159.379954214332</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4542603714511</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.8510423725824</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>75.55851119517325</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>202.2461994504182</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>264.1455215741979</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.3179817294558</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.2309512811987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>194.7251597156806</v>
       </c>
       <c r="C8" t="n">
-        <v>329.9041245198143</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>230.248278143987</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>79.66787844893692</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244364</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>236.0263989200836</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629688</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800332</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170349</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394267</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>166.1507936381773</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,25 +1844,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561542</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>46.22530271040065</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2138,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655126</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.292363805516904</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948856</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2378,13 +2378,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.41040541581629</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2843,7 +2843,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,10 +3010,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9450041785558</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561535</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>390.4213656038109</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185816</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
         <v>259.4129604006783</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -4138,7 +4138,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542.9615250231907</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C2" t="n">
-        <v>260.6280815590653</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="D2" t="n">
-        <v>228.7587007739139</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="E2" t="n">
-        <v>228.7587007739139</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>973.506815168041</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>969.2610955080985</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4413,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>810.3304425493375</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>637.7687310325624</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>637.7687310325624</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>468.0107272832997</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>291.3036732450558</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>125.7123982708835</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4492,10 +4492,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
         <v>1277.514180854636</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>809.5937463024354</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X4" t="n">
-        <v>564.2019916358479</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>1002.149061268325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>552.7406073489124</v>
+        <v>375.3476804864965</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6385385727397</v>
+        <v>341.2456117103239</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>309.3762309251725</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>279.6418901238717</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>255.8148645734835</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.52577421952568</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.52577421952568</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666568</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995836</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995836</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995836</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995836</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>574.8490166666569</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1207.322704144145</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1839.796391621632</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580227</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333284</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2471.797368517121</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2251.73014139016</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>1992.507838707176</v>
       </c>
       <c r="V5" t="n">
-        <v>1250.914606198081</v>
+        <v>1629.890888641003</v>
       </c>
       <c r="W5" t="n">
-        <v>1250.099555649518</v>
+        <v>1225.035434052036</v>
       </c>
       <c r="X5" t="n">
-        <v>983.2858974937627</v>
+        <v>1209.933374671751</v>
       </c>
       <c r="Y5" t="n">
-        <v>979.0401778338202</v>
+        <v>801.6472509714043</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379585</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.8242686746008</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.733979821154</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481077</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>178.2297267642693</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.84463703045321</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666568</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.17265800712327</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733356</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325475</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773858</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104428</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996209</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385008</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>851.7801684713901</v>
+        <v>990.2649711489216</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>817.7032596321466</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>651.8252668336693</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>482.0672630844065</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>305.3602090461627</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.7689340719903</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.7689340719903</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666568</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>51.10898484666568</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.8674394178013</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>744.0773211857623</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333284</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2534.031421038656</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2374.790052336652</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2128.910605915108</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1850.477605168213</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1563.522097038643</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.629614209975</v>
+        <v>1291.495692624935</v>
       </c>
       <c r="X7" t="n">
-        <v>1013.629614209975</v>
+        <v>1182.083589867909</v>
       </c>
       <c r="Y7" t="n">
-        <v>851.7801684713901</v>
+        <v>1182.083589867909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>917.4845405927651</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.5617128800624</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>546.0000013632873</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>509.5707382202689</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>929.6236371651722</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1283.950221756526</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1005.517221009632</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>718.5617128800624</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>718.5617128800624</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>718.5617128800624</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.5617128800624</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.094121422156</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.62151692828</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.62151692828</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>909.8467720865754</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>481.9793424957832</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904702</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904702</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991048</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>515.4194091991048</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1308.506373379569</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2300.544804988632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.583236597696</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.583236597696</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597696</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556291</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309348</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493185</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366223</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.29468368324</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617066</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.8222790281</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607411</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.393691907064</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066446</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.5158283198305</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>809.9541168030554</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>644.0761240045781</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>474.3181202553153</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553153</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811371</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715116</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820124</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S13" t="n">
-        <v>2696.824331648987</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2450.944885227442</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2172.511884480547</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.556376350977</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.145872391297</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1401.754117724709</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1174.334447038818</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5273,40 +5273,40 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289577</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M14" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N14" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O14" t="n">
-        <v>4294.449917128814</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.9519976190925</v>
+        <v>811.7546776883905</v>
       </c>
       <c r="C16" t="n">
-        <v>743.3902861023174</v>
+        <v>639.1929661716155</v>
       </c>
       <c r="D16" t="n">
-        <v>577.5122933038401</v>
+        <v>473.3149733731382</v>
       </c>
       <c r="E16" t="n">
-        <v>407.7542895545774</v>
+        <v>303.5569696238754</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856316</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5467,19 +5467,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W16" t="n">
-        <v>1580.582041690559</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X16" t="n">
-        <v>1335.190287023971</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y16" t="n">
-        <v>1107.77061633808</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="17">
@@ -5504,49 +5504,49 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2093.658967439508</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N17" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580388</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
         <v>4187.483659846699</v>
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2650.81040391895</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5738,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722818</v>
@@ -5786,13 +5786,13 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5820,10 +5820,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538982</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6057,10 +6057,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
         <v>128.3245134312372</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>611.1385207805145</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>434.4314667422707</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>268.8401917680984</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>128.9380174584729</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,13 +6470,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6540,22 +6540,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2526.607815969826</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2088.465343153249</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1652.555558327694</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1218.780813485989</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>790.9133838951966</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>389.5155525184605</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>100.3853979616767</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881675</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>535.2232960417347</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2474.288037325484</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2474.288037325484</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3454.46770389579</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4282.777578729186</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4829.276364687781</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>4998.430429440838</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>4931.178263037551</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4727.510743323466</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4484.688148053359</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4138.470905400062</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3750.015158223972</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3347.272402216159</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2952.907386454734</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167518</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.5936035633051</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902588</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064204</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726043</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881675</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>126.0322817492744</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>450.5906067154867</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310565</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>908.0668132066662</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>758.588527821065</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>605.2302314846784</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>444.9228848593108</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799774</v>
+        <v>295.7313172980146</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832281</v>
+        <v>172.2288504012653</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881675</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>202.6216469888665</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.453454795362</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.736689798683</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2660.948916274804</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2845.215044374496</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194948</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2205.842236860929</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144236</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143403</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1450.667691889692</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
         <v>1584.13803439033</v>
@@ -6923,7 +6923,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F35" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6938,25 +6938,25 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2603.270469031083</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="N35" t="n">
-        <v>3729.00145246753</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="O35" t="n">
-        <v>4709.181119037836</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="P35" t="n">
-        <v>4709.181119037836</v>
+        <v>4427.58935938372</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790892</v>
@@ -6965,22 +6965,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7072,22 +7072,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581785</v>
@@ -7111,13 +7111,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7187,37 +7187,37 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.186622908067</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.82832657168</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463123</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
         <v>293.3294123850158</v>
@@ -7327,7 +7327,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581808</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7728,19 +7728,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,13 +7783,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.5209799463119</v>
@@ -7828,7 +7828,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7840,10 +7840,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>89.37913572431654</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.862310583321</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.862310583321</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>638.862310583321</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256165</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>143.8920278917585</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>392.9771560141119</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,22 +8690,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>801.0979436166303</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1002.059021827337</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827337</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8939,10 +8939,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>826.860703444614</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,19 +9173,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>370.6804142768942</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9644,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>826.860703444614</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,16 +10118,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.95402330576962</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,28 +10586,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.443547120695</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>455.2988125324973</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,28 +11060,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>274.7698556067166</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>154.2509390589267</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>270.0570431789557</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>350.7259332933578</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.65211019394683</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>354.0931696394741</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>33.27974144948774</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627271</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>111.4236523045826</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>61.36294431725513</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>29.99283294136586</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>826422.2424055575</v>
+        <v>689907.2605073366</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900760.7379921118</v>
+        <v>916163.9218230427</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>900760.7379921118</v>
+        <v>918220.8408728461</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785294.7724327135</v>
+        <v>937044.2468777337</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937044.2468777337</v>
+        <v>937044.246877734</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937044.2468777341</v>
+        <v>937044.246877734</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>951907.8240826239</v>
+        <v>950327.4113764043</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73452.86402232184</v>
+        <v>60654.58446936361</v>
       </c>
       <c r="C2" t="n">
         <v>80422.09798356127</v>
       </c>
       <c r="D2" t="n">
-        <v>80422.09798356127</v>
+        <v>80422.09798356125</v>
       </c>
       <c r="E2" t="n">
-        <v>66230.3580676446</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="F2" t="n">
-        <v>79028.63762060284</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="G2" t="n">
-        <v>79028.63762060284</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="H2" t="n">
-        <v>79028.63762060284</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="I2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="J2" t="n">
-        <v>79028.63762060279</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="K2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="L2" t="n">
+        <v>80422.09798356125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>80422.09798356125</v>
+      </c>
+      <c r="N2" t="n">
         <v>80422.09798356137</v>
       </c>
-      <c r="M2" t="n">
-        <v>80422.09798356135</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80422.09798356127</v>
-      </c>
       <c r="O2" t="n">
-        <v>80422.09798356138</v>
+        <v>80422.09798356125</v>
       </c>
       <c r="P2" t="n">
         <v>80422.0979835613</v>
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118372022</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101602</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725248</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471808</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.345267868590081e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197395</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>12988.56827099794</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978839</v>
+        <v>144718.1170387504</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341144</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571707</v>
+        <v>136875.4802388638</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>178390.1777075791</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.3707372667</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875279</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875293</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653861</v>
+        <v>103678.8250359886</v>
       </c>
       <c r="M4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
         <v>107302.2988178706</v>
@@ -26470,43 +26470,43 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346592</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710207</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>77341.06245996887</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313737.6156317811</v>
+        <v>-278166.4431250024</v>
       </c>
       <c r="C6" t="n">
-        <v>-191095.809590879</v>
+        <v>-239758.639391204</v>
       </c>
       <c r="D6" t="n">
-        <v>-191095.809590879</v>
+        <v>-176580.4109367411</v>
       </c>
       <c r="E6" t="n">
-        <v>-246715.571269249</v>
+        <v>-275946.379194375</v>
       </c>
       <c r="F6" t="n">
-        <v>-172706.9513386606</v>
+        <v>-93591.26997332516</v>
       </c>
       <c r="G6" t="n">
-        <v>-93568.04563394249</v>
+        <v>-93591.26997332527</v>
       </c>
       <c r="H6" t="n">
-        <v>-93568.04563394254</v>
+        <v>-93591.26997332516</v>
       </c>
       <c r="I6" t="n">
-        <v>-93568.0456339425</v>
+        <v>-93591.26997332524</v>
       </c>
       <c r="J6" t="n">
-        <v>-204582.5109789328</v>
+        <v>-204605.7353183154</v>
       </c>
       <c r="K6" t="n">
-        <v>-93568.04563394262</v>
+        <v>-148813.8088652992</v>
       </c>
       <c r="L6" t="n">
-        <v>-111870.4312910833</v>
+        <v>-113586.3577833942</v>
       </c>
       <c r="M6" t="n">
-        <v>-231754.2369582828</v>
+        <v>-247113.9325991494</v>
       </c>
       <c r="N6" t="n">
-        <v>-170045.0158338104</v>
+        <v>-102395.8155603989</v>
       </c>
       <c r="O6" t="n">
-        <v>-102395.8155603989</v>
+        <v>-102395.8155603991</v>
       </c>
       <c r="P6" t="n">
         <v>-102395.815560399</v>
@@ -26716,10 +26716,10 @@
         <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874738</v>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.862310583321</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360209</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632167</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453595</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072325</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574087</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632167</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702104</v>
+        <v>580.721485364402</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574087</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632167</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453595</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072325</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574087</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>231.1344949234333</v>
+        <v>72.86282200152652</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>193.7476291743981</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1376536125505</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>150.8055172122845</v>
-      </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>134.6198553904658</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.91452269783409</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>227.3114150643781</v>
       </c>
       <c r="C8" t="n">
-        <v>103.8569235685966</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.17237381334226</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.7818968595322</v>
       </c>
     </row>
     <row r="33">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30654,7 +30654,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
         <v>16.23571033874738</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34790,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>89.37913572431654</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.862310583321</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.862310583321</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>638.862310583321</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256165</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>143.8920278917585</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>392.9771560141119</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>801.0979436166303</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1002.059021827337</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827337</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,13 +35656,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>826.860703444614</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,19 +35893,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>370.6804142768942</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>826.860703444614</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36838,16 +36838,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.95402330576962</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37306,28 +37306,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.443547120695</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>455.2988125324973</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37716,7 +37716,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.127402120901</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>274.7698556067166</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
